--- a/ch4/tabn304_70.xlsx
+++ b/ch4/tabn304_70.xlsx
@@ -5,24 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A50548-BE7B-475D-A999-5E8BC7338DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31780260-5ADE-4E69-8FC5-0B9014B9F8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Digest 2018 Table 304.70" sheetId="1" r:id="rId1"/>
-    <sheet name="Undergrads" sheetId="2" r:id="rId2"/>
+    <sheet name="reformatted" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Digest 2018 Table 304.70'!$A$1:$M$79</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Undergrads!$B$1:$H$51</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">'Digest 2018 Table 304.70'!$A$1:$H$82</definedName>
-    <definedName name="Print_Area_MI" localSheetId="1">Undergrads!$B$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -250,185 +247,188 @@
     <t>SOURCE: U.S. Department of Education, National Center for Education Statistics, Integrated Postsecondary Education Data System (IPEDS), Spring 2001 through Spring 2018, Fall Enrollment component. (This table was prepared December 2018.)</t>
   </si>
   <si>
-    <t>Ugrad2000</t>
-  </si>
-  <si>
-    <t>Ugrad2010</t>
-  </si>
-  <si>
-    <t>Ugrad2012</t>
-  </si>
-  <si>
-    <t>Ugrad2015</t>
-  </si>
-  <si>
-    <t>Ugrad2016</t>
-  </si>
-  <si>
-    <t>Ugrad2017</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Alabama</t>
+    <t>HSGrad2000</t>
+  </si>
+  <si>
+    <t>HSGrad2010</t>
+  </si>
+  <si>
+    <t>HSGrad2012</t>
+  </si>
+  <si>
+    <t>HSGrad2015</t>
+  </si>
+  <si>
+    <t>HSGrad2016</t>
+  </si>
+  <si>
+    <t>HSGrad2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">California                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of Columbia         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Dakota                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermont                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming                    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Courier"/>
@@ -443,6 +443,15 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -675,116 +684,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,14 +1103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803BDDC-DF11-441A-AF59-C6D5DBD966CD}">
+  <sheetPr syncVertical="1" syncRef="A2" transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,45 +1124,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="35" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="2">
         <v>2000</v>
       </c>
@@ -3945,38 +3949,38 @@
       </c>
     </row>
     <row r="78" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:13" s="7" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
     </row>
     <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
@@ -4076,12 +4080,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A79:M79"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="A78:M78"/>
+    <mergeCell ref="A79:M79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.9" header="0.5" footer="0.5"/>
   <pageSetup scale="77" fitToHeight="2" orientation="landscape" r:id="rId1"/>
@@ -4097,1406 +4101,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C35D47A-F853-4E1A-BA41-06BC61FACA84}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.625" style="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36">
+        <v>201389</v>
+      </c>
+      <c r="C2" s="36">
+        <v>282128</v>
+      </c>
+      <c r="D2" s="36">
+        <v>265917</v>
+      </c>
+      <c r="E2" s="36">
+        <v>257649</v>
+      </c>
+      <c r="F2" s="36">
+        <v>258008</v>
+      </c>
+      <c r="G2" s="36">
+        <v>259562</v>
+      </c>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="36">
+        <v>26222</v>
+      </c>
+      <c r="C3" s="36">
+        <v>31925</v>
+      </c>
+      <c r="D3" s="36">
+        <v>30018</v>
+      </c>
+      <c r="E3" s="36">
+        <v>28818</v>
+      </c>
+      <c r="F3" s="36">
+        <v>25987</v>
+      </c>
+      <c r="G3" s="36">
+        <v>24607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="36">
+        <v>299529</v>
+      </c>
+      <c r="C4" s="36">
+        <v>672083</v>
+      </c>
+      <c r="D4" s="36">
+        <v>621684</v>
+      </c>
+      <c r="E4" s="36">
+        <v>541853</v>
+      </c>
+      <c r="F4" s="36">
+        <v>510367</v>
+      </c>
+      <c r="G4" s="36">
+        <v>493410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="36">
+        <v>104580</v>
+      </c>
+      <c r="C5" s="36">
+        <v>156970</v>
+      </c>
+      <c r="D5" s="36">
+        <v>157504</v>
+      </c>
+      <c r="E5" s="36">
+        <v>148630</v>
+      </c>
+      <c r="F5" s="36">
+        <v>145875</v>
+      </c>
+      <c r="G5" s="36">
+        <v>143055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="36">
+        <v>2012213</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2444496</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2359805</v>
+      </c>
+      <c r="E6" s="36">
+        <v>2415506</v>
+      </c>
+      <c r="F6" s="36">
+        <v>2416526</v>
+      </c>
+      <c r="G6" s="36">
+        <v>2415337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="36">
+        <v>220059</v>
+      </c>
+      <c r="C7" s="36">
+        <v>312099</v>
+      </c>
+      <c r="D7" s="36">
+        <v>305465</v>
+      </c>
+      <c r="E7" s="36">
+        <v>289534</v>
+      </c>
+      <c r="F7" s="36">
+        <v>293223</v>
+      </c>
+      <c r="G7" s="36">
+        <v>299805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="36">
+        <v>127715</v>
+      </c>
+      <c r="C8" s="36">
+        <v>163291</v>
+      </c>
+      <c r="D8" s="36">
+        <v>166812</v>
+      </c>
+      <c r="E8" s="36">
+        <v>162925</v>
+      </c>
+      <c r="F8" s="36">
+        <v>160651</v>
+      </c>
+      <c r="G8" s="36">
+        <v>160568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="36">
+        <v>37930</v>
+      </c>
+      <c r="C9" s="36">
+        <v>45848</v>
+      </c>
+      <c r="D9" s="36">
+        <v>47815</v>
+      </c>
+      <c r="E9" s="36">
+        <v>47981</v>
+      </c>
+      <c r="F9" s="36">
+        <v>49047</v>
+      </c>
+      <c r="G9" s="36">
+        <v>49068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="36">
+        <v>40703</v>
+      </c>
+      <c r="C10" s="36">
+        <v>50330</v>
+      </c>
+      <c r="D10" s="36">
+        <v>47699</v>
+      </c>
+      <c r="E10" s="36">
+        <v>50556</v>
+      </c>
+      <c r="F10" s="36">
+        <v>48948</v>
+      </c>
+      <c r="G10" s="36">
+        <v>50565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="36">
+        <v>623071</v>
+      </c>
+      <c r="C11" s="36">
+        <v>993545</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1023378</v>
+      </c>
+      <c r="E11" s="36">
+        <v>956598</v>
+      </c>
+      <c r="F11" s="36">
+        <v>947837</v>
+      </c>
+      <c r="G11" s="36">
+        <v>944323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="36">
+        <v>296980</v>
+      </c>
+      <c r="C12" s="36">
+        <v>499187</v>
+      </c>
+      <c r="D12" s="36">
+        <v>476815</v>
+      </c>
+      <c r="E12" s="36">
+        <v>456792</v>
+      </c>
+      <c r="F12" s="36">
+        <v>457293</v>
+      </c>
+      <c r="G12" s="36">
+        <v>459860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="36">
+        <v>51783</v>
+      </c>
+      <c r="C13" s="36">
+        <v>68244</v>
+      </c>
+      <c r="D13" s="36">
+        <v>69272</v>
+      </c>
+      <c r="E13" s="36">
+        <v>61367</v>
+      </c>
+      <c r="F13" s="36">
+        <v>58328</v>
+      </c>
+      <c r="G13" s="36">
+        <v>56968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="36">
+        <v>58644</v>
+      </c>
+      <c r="C14" s="36">
+        <v>76998</v>
+      </c>
+      <c r="D14" s="36">
+        <v>99901</v>
+      </c>
+      <c r="E14" s="36">
+        <v>113245</v>
+      </c>
+      <c r="F14" s="36">
+        <v>115259</v>
+      </c>
+      <c r="G14" s="36">
+        <v>123597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="36">
+        <v>623018</v>
+      </c>
+      <c r="C15" s="36">
+        <v>748921</v>
+      </c>
+      <c r="D15" s="36">
+        <v>713472</v>
+      </c>
+      <c r="E15" s="36">
+        <v>650597</v>
+      </c>
+      <c r="F15" s="36">
+        <v>626068</v>
+      </c>
+      <c r="G15" s="36">
+        <v>604973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="36">
+        <v>273198</v>
+      </c>
+      <c r="C16" s="36">
+        <v>404033</v>
+      </c>
+      <c r="D16" s="36">
+        <v>392626</v>
+      </c>
+      <c r="E16" s="36">
+        <v>369200</v>
+      </c>
+      <c r="F16" s="36">
+        <v>360576</v>
+      </c>
+      <c r="G16" s="36">
+        <v>339666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="36">
+        <v>165360</v>
+      </c>
+      <c r="C17" s="36">
+        <v>339036</v>
+      </c>
+      <c r="D17" s="36">
+        <v>315424</v>
+      </c>
+      <c r="E17" s="36">
+        <v>237013</v>
+      </c>
+      <c r="F17" s="36">
+        <v>229452</v>
+      </c>
+      <c r="G17" s="36">
+        <v>224341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="36">
+        <v>156385</v>
+      </c>
+      <c r="C18" s="36">
+        <v>188326</v>
+      </c>
+      <c r="D18" s="36">
+        <v>187921</v>
+      </c>
+      <c r="E18" s="36">
+        <v>191680</v>
+      </c>
+      <c r="F18" s="36">
+        <v>187934</v>
+      </c>
+      <c r="G18" s="36">
+        <v>186190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="36">
+        <v>164183</v>
+      </c>
+      <c r="C19" s="36">
+        <v>256447</v>
+      </c>
+      <c r="D19" s="36">
+        <v>244950</v>
+      </c>
+      <c r="E19" s="36">
+        <v>219870</v>
+      </c>
+      <c r="F19" s="36">
+        <v>216868</v>
+      </c>
+      <c r="G19" s="36">
+        <v>215826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="36">
+        <v>191517</v>
+      </c>
+      <c r="C20" s="36">
+        <v>230370</v>
+      </c>
+      <c r="D20" s="36">
+        <v>227290</v>
+      </c>
+      <c r="E20" s="36">
+        <v>214594</v>
+      </c>
+      <c r="F20" s="36">
+        <v>209521</v>
+      </c>
+      <c r="G20" s="36">
+        <v>210828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="36">
+        <v>50728</v>
+      </c>
+      <c r="C21" s="36">
+        <v>63599</v>
+      </c>
+      <c r="D21" s="36">
+        <v>63369</v>
+      </c>
+      <c r="E21" s="36">
+        <v>62252</v>
+      </c>
+      <c r="F21" s="36">
+        <v>62456</v>
+      </c>
+      <c r="G21" s="36">
+        <v>61919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="36">
+        <v>221952</v>
+      </c>
+      <c r="C22" s="36">
+        <v>305358</v>
+      </c>
+      <c r="D22" s="36">
+        <v>302485</v>
+      </c>
+      <c r="E22" s="36">
+        <v>294032</v>
+      </c>
+      <c r="F22" s="36">
+        <v>295200</v>
+      </c>
+      <c r="G22" s="36">
+        <v>291356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="36">
+        <v>320012</v>
+      </c>
+      <c r="C23" s="36">
+        <v>377241</v>
+      </c>
+      <c r="D23" s="36">
+        <v>381253</v>
+      </c>
+      <c r="E23" s="36">
+        <v>374979</v>
+      </c>
+      <c r="F23" s="36">
+        <v>367735</v>
+      </c>
+      <c r="G23" s="36">
+        <v>362741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="36">
+        <v>480618</v>
+      </c>
+      <c r="C24" s="36">
+        <v>605990</v>
+      </c>
+      <c r="D24" s="36">
+        <v>575388</v>
+      </c>
+      <c r="E24" s="36">
+        <v>517079</v>
+      </c>
+      <c r="F24" s="36">
+        <v>500050</v>
+      </c>
+      <c r="G24" s="36">
+        <v>476450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="36">
+        <v>254632</v>
+      </c>
+      <c r="C25" s="36">
+        <v>346864</v>
+      </c>
+      <c r="D25" s="36">
+        <v>335747</v>
+      </c>
+      <c r="E25" s="36">
+        <v>311536</v>
+      </c>
+      <c r="F25" s="36">
+        <v>303941</v>
+      </c>
+      <c r="G25" s="36">
+        <v>297523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="36">
+        <v>123299</v>
+      </c>
+      <c r="C26" s="36">
+        <v>159262</v>
+      </c>
+      <c r="D26" s="36">
+        <v>155292</v>
+      </c>
+      <c r="E26" s="36">
+        <v>153551</v>
+      </c>
+      <c r="F26" s="36">
+        <v>151467</v>
+      </c>
+      <c r="G26" s="36">
+        <v>151403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="36">
+        <v>266802</v>
+      </c>
+      <c r="C27" s="36">
+        <v>367032</v>
+      </c>
+      <c r="D27" s="36">
+        <v>363123</v>
+      </c>
+      <c r="E27" s="36">
+        <v>331955</v>
+      </c>
+      <c r="F27" s="36">
+        <v>324162</v>
+      </c>
+      <c r="G27" s="36">
+        <v>308402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="36">
+        <v>38481</v>
+      </c>
+      <c r="C28" s="36">
+        <v>48446</v>
+      </c>
+      <c r="D28" s="36">
+        <v>48424</v>
+      </c>
+      <c r="E28" s="36">
+        <v>46067</v>
+      </c>
+      <c r="F28" s="36">
+        <v>45714</v>
+      </c>
+      <c r="G28" s="36">
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="36">
+        <v>96759</v>
+      </c>
+      <c r="C29" s="36">
+        <v>121430</v>
+      </c>
+      <c r="D29" s="36">
+        <v>115701</v>
+      </c>
+      <c r="E29" s="36">
+        <v>110313</v>
+      </c>
+      <c r="F29" s="36">
+        <v>110332</v>
+      </c>
+      <c r="G29" s="36">
+        <v>110118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="36">
+        <v>79053</v>
+      </c>
+      <c r="C30" s="36">
+        <v>116743</v>
+      </c>
+      <c r="D30" s="36">
+        <v>106854</v>
+      </c>
+      <c r="E30" s="36">
+        <v>104845</v>
+      </c>
+      <c r="F30" s="36">
+        <v>104809</v>
+      </c>
+      <c r="G30" s="36">
+        <v>105916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="36">
+        <v>51990</v>
+      </c>
+      <c r="C31" s="36">
+        <v>62442</v>
+      </c>
+      <c r="D31" s="36">
+        <v>66770</v>
+      </c>
+      <c r="E31" s="36">
+        <v>96588</v>
+      </c>
+      <c r="F31" s="36">
+        <v>104321</v>
+      </c>
+      <c r="G31" s="36">
+        <v>119473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="36">
+        <v>284785</v>
+      </c>
+      <c r="C32" s="36">
+        <v>380060</v>
+      </c>
+      <c r="D32" s="36">
+        <v>376901</v>
+      </c>
+      <c r="E32" s="36">
+        <v>360074</v>
+      </c>
+      <c r="F32" s="36">
+        <v>357479</v>
+      </c>
+      <c r="G32" s="36">
+        <v>355613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="36">
+        <v>96377</v>
+      </c>
+      <c r="C33" s="36">
+        <v>147976</v>
+      </c>
+      <c r="D33" s="36">
+        <v>141773</v>
+      </c>
+      <c r="E33" s="36">
+        <v>124385</v>
+      </c>
+      <c r="F33" s="36">
+        <v>120692</v>
+      </c>
+      <c r="G33" s="36">
+        <v>115954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="36">
+        <v>839423</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1059332</v>
+      </c>
+      <c r="D34" s="36">
+        <v>1070674</v>
+      </c>
+      <c r="E34" s="36">
+        <v>1048058</v>
+      </c>
+      <c r="F34" s="36">
+        <v>1033325</v>
+      </c>
+      <c r="G34" s="36">
+        <v>1017768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="36">
+        <v>358912</v>
+      </c>
+      <c r="C35" s="36">
+        <v>516254</v>
+      </c>
+      <c r="D35" s="36">
+        <v>508495</v>
+      </c>
+      <c r="E35" s="36">
+        <v>490350</v>
+      </c>
+      <c r="F35" s="36">
+        <v>488859</v>
+      </c>
+      <c r="G35" s="36">
+        <v>489833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="36">
+        <v>36899</v>
+      </c>
+      <c r="C36" s="36">
+        <v>50003</v>
+      </c>
+      <c r="D36" s="36">
+        <v>48196</v>
+      </c>
+      <c r="E36" s="36">
+        <v>46568</v>
+      </c>
+      <c r="F36" s="36">
+        <v>46669</v>
+      </c>
+      <c r="G36" s="36">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="36">
+        <v>469999</v>
+      </c>
+      <c r="C37" s="36">
+        <v>650546</v>
+      </c>
+      <c r="D37" s="36">
+        <v>619564</v>
+      </c>
+      <c r="E37" s="36">
+        <v>574217</v>
+      </c>
+      <c r="F37" s="36">
+        <v>567491</v>
+      </c>
+      <c r="G37" s="36">
+        <v>560843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="36">
+        <v>157021</v>
+      </c>
+      <c r="C38" s="36">
+        <v>204217</v>
+      </c>
+      <c r="D38" s="36">
+        <v>202092</v>
+      </c>
+      <c r="E38" s="36">
+        <v>185545</v>
+      </c>
+      <c r="F38" s="36">
+        <v>182743</v>
+      </c>
+      <c r="G38" s="36">
+        <v>177139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="36">
+        <v>160805</v>
+      </c>
+      <c r="C39" s="36">
+        <v>221825</v>
+      </c>
+      <c r="D39" s="36">
+        <v>225425</v>
+      </c>
+      <c r="E39" s="36">
+        <v>206895</v>
+      </c>
+      <c r="F39" s="36">
+        <v>204626</v>
+      </c>
+      <c r="G39" s="36">
+        <v>198198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="36">
+        <v>506948</v>
+      </c>
+      <c r="C40" s="36">
+        <v>664384</v>
+      </c>
+      <c r="D40" s="36">
+        <v>640440</v>
+      </c>
+      <c r="E40" s="36">
+        <v>598510</v>
+      </c>
+      <c r="F40" s="36">
+        <v>584400</v>
+      </c>
+      <c r="G40" s="36">
+        <v>573544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="36">
+        <v>65067</v>
+      </c>
+      <c r="C41" s="36">
+        <v>73974</v>
+      </c>
+      <c r="D41" s="36">
+        <v>73338</v>
+      </c>
+      <c r="E41" s="36">
+        <v>71972</v>
+      </c>
+      <c r="F41" s="36">
+        <v>72496</v>
+      </c>
+      <c r="G41" s="36">
+        <v>71401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="36">
+        <v>161699</v>
+      </c>
+      <c r="C42" s="36">
+        <v>231375</v>
+      </c>
+      <c r="D42" s="36">
+        <v>233835</v>
+      </c>
+      <c r="E42" s="36">
+        <v>223671</v>
+      </c>
+      <c r="F42" s="36">
+        <v>220218</v>
+      </c>
+      <c r="G42" s="36">
+        <v>219949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="36">
+        <v>37497</v>
+      </c>
+      <c r="C43" s="36">
+        <v>50605</v>
+      </c>
+      <c r="D43" s="36">
+        <v>49259</v>
+      </c>
+      <c r="E43" s="36">
+        <v>46901</v>
+      </c>
+      <c r="F43" s="36">
+        <v>46726</v>
+      </c>
+      <c r="G43" s="36">
+        <v>46809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="36">
+        <v>230376</v>
+      </c>
+      <c r="C44" s="36">
+        <v>302248</v>
+      </c>
+      <c r="D44" s="36">
+        <v>295126</v>
+      </c>
+      <c r="E44" s="36">
+        <v>277409</v>
+      </c>
+      <c r="F44" s="36">
+        <v>274666</v>
+      </c>
+      <c r="G44" s="36">
+        <v>275340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="36">
+        <v>905649</v>
+      </c>
+      <c r="C45" s="36">
+        <v>1360528</v>
+      </c>
+      <c r="D45" s="36">
+        <v>1367078</v>
+      </c>
+      <c r="E45" s="36">
+        <v>1390972</v>
+      </c>
+      <c r="F45" s="36">
+        <v>1412148</v>
+      </c>
+      <c r="G45" s="36">
+        <v>1437386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="36">
+        <v>149954</v>
+      </c>
+      <c r="C46" s="36">
+        <v>231721</v>
+      </c>
+      <c r="D46" s="36">
+        <v>239025</v>
+      </c>
+      <c r="E46" s="36">
+        <v>259006</v>
+      </c>
+      <c r="F46" s="36">
+        <v>272520</v>
+      </c>
+      <c r="G46" s="36">
+        <v>287468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="36">
+        <v>30809</v>
+      </c>
+      <c r="C47" s="36">
+        <v>38608</v>
+      </c>
+      <c r="D47" s="36">
+        <v>37792</v>
+      </c>
+      <c r="E47" s="36">
+        <v>37298</v>
+      </c>
+      <c r="F47" s="36">
+        <v>37784</v>
+      </c>
+      <c r="G47" s="36">
+        <v>37233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="36">
+        <v>325395</v>
+      </c>
+      <c r="C48" s="36">
+        <v>486820</v>
+      </c>
+      <c r="D48" s="36">
+        <v>492564</v>
+      </c>
+      <c r="E48" s="36">
+        <v>474525</v>
+      </c>
+      <c r="F48" s="36">
+        <v>462335</v>
+      </c>
+      <c r="G48" s="36">
+        <v>457708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="36">
+        <v>290292</v>
+      </c>
+      <c r="C49" s="36">
+        <v>351863</v>
+      </c>
+      <c r="D49" s="36">
+        <v>329638</v>
+      </c>
+      <c r="E49" s="36">
+        <v>328355</v>
+      </c>
+      <c r="F49" s="36">
+        <v>329698</v>
+      </c>
+      <c r="G49" s="36">
+        <v>331253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="36">
+        <v>76556</v>
+      </c>
+      <c r="C50" s="36">
+        <v>128335</v>
+      </c>
+      <c r="D50" s="36">
+        <v>136166</v>
+      </c>
+      <c r="E50" s="36">
+        <v>127619</v>
+      </c>
+      <c r="F50" s="36">
+        <v>123779</v>
+      </c>
+      <c r="G50" s="36">
+        <v>120976</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="36">
+        <v>271839</v>
+      </c>
+      <c r="C51" s="36">
+        <v>341698</v>
+      </c>
+      <c r="D51" s="36">
+        <v>329778</v>
+      </c>
+      <c r="E51" s="36">
+        <v>310350</v>
+      </c>
+      <c r="F51" s="36">
+        <v>302211</v>
+      </c>
+      <c r="G51" s="36">
+        <v>301126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="30">
-        <v>201389</v>
-      </c>
-      <c r="D2" s="30">
-        <v>282128</v>
-      </c>
-      <c r="E2" s="30">
-        <v>265917</v>
-      </c>
-      <c r="F2" s="30">
-        <v>257649</v>
-      </c>
-      <c r="G2" s="30">
-        <v>258008</v>
-      </c>
-      <c r="H2" s="30">
-        <v>259562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="30">
-        <v>26222</v>
-      </c>
-      <c r="D3" s="30">
-        <v>31925</v>
-      </c>
-      <c r="E3" s="30">
-        <v>30018</v>
-      </c>
-      <c r="F3" s="30">
-        <v>28818</v>
-      </c>
-      <c r="G3" s="30">
-        <v>25987</v>
-      </c>
-      <c r="H3" s="30">
-        <v>24607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4:A51" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="30">
-        <v>299529</v>
-      </c>
-      <c r="D4" s="30">
-        <v>672083</v>
-      </c>
-      <c r="E4" s="30">
-        <v>621684</v>
-      </c>
-      <c r="F4" s="30">
-        <v>541853</v>
-      </c>
-      <c r="G4" s="30">
-        <v>510367</v>
-      </c>
-      <c r="H4" s="30">
-        <v>493410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="30">
-        <v>104580</v>
-      </c>
-      <c r="D5" s="30">
-        <v>156970</v>
-      </c>
-      <c r="E5" s="30">
-        <v>157504</v>
-      </c>
-      <c r="F5" s="30">
-        <v>148630</v>
-      </c>
-      <c r="G5" s="30">
-        <v>145875</v>
-      </c>
-      <c r="H5" s="30">
-        <v>143055</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="30">
-        <v>2012213</v>
-      </c>
-      <c r="D6" s="30">
-        <v>2444496</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2359805</v>
-      </c>
-      <c r="F6" s="30">
-        <v>2415506</v>
-      </c>
-      <c r="G6" s="30">
-        <v>2416526</v>
-      </c>
-      <c r="H6" s="30">
-        <v>2415337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="30">
-        <v>220059</v>
-      </c>
-      <c r="D7" s="30">
-        <v>312099</v>
-      </c>
-      <c r="E7" s="30">
-        <v>305465</v>
-      </c>
-      <c r="F7" s="30">
-        <v>289534</v>
-      </c>
-      <c r="G7" s="30">
-        <v>293223</v>
-      </c>
-      <c r="H7" s="30">
-        <v>299805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="30">
-        <v>127715</v>
-      </c>
-      <c r="D8" s="30">
-        <v>163291</v>
-      </c>
-      <c r="E8" s="30">
-        <v>166812</v>
-      </c>
-      <c r="F8" s="30">
-        <v>162925</v>
-      </c>
-      <c r="G8" s="30">
-        <v>160651</v>
-      </c>
-      <c r="H8" s="30">
-        <v>160568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="30">
-        <v>37930</v>
-      </c>
-      <c r="D9" s="30">
-        <v>45848</v>
-      </c>
-      <c r="E9" s="30">
-        <v>47815</v>
-      </c>
-      <c r="F9" s="30">
-        <v>47981</v>
-      </c>
-      <c r="G9" s="30">
-        <v>49047</v>
-      </c>
-      <c r="H9" s="30">
-        <v>49068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="30">
-        <v>623071</v>
-      </c>
-      <c r="D10" s="30">
-        <v>993545</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1023378</v>
-      </c>
-      <c r="F10" s="30">
-        <v>956598</v>
-      </c>
-      <c r="G10" s="30">
-        <v>947837</v>
-      </c>
-      <c r="H10" s="30">
-        <v>944323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="30">
-        <v>296980</v>
-      </c>
-      <c r="D11" s="30">
-        <v>499187</v>
-      </c>
-      <c r="E11" s="30">
-        <v>476815</v>
-      </c>
-      <c r="F11" s="30">
-        <v>456792</v>
-      </c>
-      <c r="G11" s="30">
-        <v>457293</v>
-      </c>
-      <c r="H11" s="30">
-        <v>459860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="30">
-        <v>51783</v>
-      </c>
-      <c r="D12" s="30">
-        <v>68244</v>
-      </c>
-      <c r="E12" s="30">
-        <v>69272</v>
-      </c>
-      <c r="F12" s="30">
-        <v>61367</v>
-      </c>
-      <c r="G12" s="30">
-        <v>58328</v>
-      </c>
-      <c r="H12" s="30">
-        <v>56968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="30">
-        <v>58644</v>
-      </c>
-      <c r="D13" s="30">
-        <v>76998</v>
-      </c>
-      <c r="E13" s="30">
-        <v>99901</v>
-      </c>
-      <c r="F13" s="30">
-        <v>113245</v>
-      </c>
-      <c r="G13" s="30">
-        <v>115259</v>
-      </c>
-      <c r="H13" s="30">
-        <v>123597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="30">
-        <v>623018</v>
-      </c>
-      <c r="D14" s="30">
-        <v>748921</v>
-      </c>
-      <c r="E14" s="30">
-        <v>713472</v>
-      </c>
-      <c r="F14" s="30">
-        <v>650597</v>
-      </c>
-      <c r="G14" s="30">
-        <v>626068</v>
-      </c>
-      <c r="H14" s="30">
-        <v>604973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="30">
-        <v>273198</v>
-      </c>
-      <c r="D15" s="30">
-        <v>404033</v>
-      </c>
-      <c r="E15" s="30">
-        <v>392626</v>
-      </c>
-      <c r="F15" s="30">
-        <v>369200</v>
-      </c>
-      <c r="G15" s="30">
-        <v>360576</v>
-      </c>
-      <c r="H15" s="30">
-        <v>339666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="30">
-        <v>165360</v>
-      </c>
-      <c r="D16" s="30">
-        <v>339036</v>
-      </c>
-      <c r="E16" s="30">
-        <v>315424</v>
-      </c>
-      <c r="F16" s="30">
-        <v>237013</v>
-      </c>
-      <c r="G16" s="30">
-        <v>229452</v>
-      </c>
-      <c r="H16" s="30">
-        <v>224341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="30">
-        <v>156385</v>
-      </c>
-      <c r="D17" s="30">
-        <v>188326</v>
-      </c>
-      <c r="E17" s="30">
-        <v>187921</v>
-      </c>
-      <c r="F17" s="30">
-        <v>191680</v>
-      </c>
-      <c r="G17" s="30">
-        <v>187934</v>
-      </c>
-      <c r="H17" s="30">
-        <v>186190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="30">
-        <v>164183</v>
-      </c>
-      <c r="D18" s="30">
-        <v>256447</v>
-      </c>
-      <c r="E18" s="30">
-        <v>244950</v>
-      </c>
-      <c r="F18" s="30">
-        <v>219870</v>
-      </c>
-      <c r="G18" s="30">
-        <v>216868</v>
-      </c>
-      <c r="H18" s="30">
-        <v>215826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="30">
-        <v>191517</v>
-      </c>
-      <c r="D19" s="30">
-        <v>230370</v>
-      </c>
-      <c r="E19" s="30">
-        <v>227290</v>
-      </c>
-      <c r="F19" s="30">
-        <v>214594</v>
-      </c>
-      <c r="G19" s="30">
-        <v>209521</v>
-      </c>
-      <c r="H19" s="30">
-        <v>210828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="30">
-        <v>50728</v>
-      </c>
-      <c r="D20" s="30">
-        <v>63599</v>
-      </c>
-      <c r="E20" s="30">
-        <v>63369</v>
-      </c>
-      <c r="F20" s="30">
-        <v>62252</v>
-      </c>
-      <c r="G20" s="30">
-        <v>62456</v>
-      </c>
-      <c r="H20" s="30">
-        <v>61919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="30">
-        <v>221952</v>
-      </c>
-      <c r="D21" s="30">
-        <v>305358</v>
-      </c>
-      <c r="E21" s="30">
-        <v>302485</v>
-      </c>
-      <c r="F21" s="30">
-        <v>294032</v>
-      </c>
-      <c r="G21" s="30">
-        <v>295200</v>
-      </c>
-      <c r="H21" s="30">
-        <v>291356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="30">
-        <v>320012</v>
-      </c>
-      <c r="D22" s="30">
-        <v>377241</v>
-      </c>
-      <c r="E22" s="30">
-        <v>381253</v>
-      </c>
-      <c r="F22" s="30">
-        <v>374979</v>
-      </c>
-      <c r="G22" s="30">
-        <v>367735</v>
-      </c>
-      <c r="H22" s="30">
-        <v>362741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="30">
-        <v>480618</v>
-      </c>
-      <c r="D23" s="30">
-        <v>605990</v>
-      </c>
-      <c r="E23" s="30">
-        <v>575388</v>
-      </c>
-      <c r="F23" s="30">
-        <v>517079</v>
-      </c>
-      <c r="G23" s="30">
-        <v>500050</v>
-      </c>
-      <c r="H23" s="30">
-        <v>476450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="30">
-        <v>254632</v>
-      </c>
-      <c r="D24" s="30">
-        <v>346864</v>
-      </c>
-      <c r="E24" s="30">
-        <v>335747</v>
-      </c>
-      <c r="F24" s="30">
-        <v>311536</v>
-      </c>
-      <c r="G24" s="30">
-        <v>303941</v>
-      </c>
-      <c r="H24" s="30">
-        <v>297523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="30">
-        <v>123299</v>
-      </c>
-      <c r="D25" s="30">
-        <v>159262</v>
-      </c>
-      <c r="E25" s="30">
-        <v>155292</v>
-      </c>
-      <c r="F25" s="30">
-        <v>153551</v>
-      </c>
-      <c r="G25" s="30">
-        <v>151467</v>
-      </c>
-      <c r="H25" s="30">
-        <v>151403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="30">
-        <v>266802</v>
-      </c>
-      <c r="D26" s="30">
-        <v>367032</v>
-      </c>
-      <c r="E26" s="30">
-        <v>363123</v>
-      </c>
-      <c r="F26" s="30">
-        <v>331955</v>
-      </c>
-      <c r="G26" s="30">
-        <v>324162</v>
-      </c>
-      <c r="H26" s="30">
-        <v>308402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="30">
-        <v>38481</v>
-      </c>
-      <c r="D27" s="30">
-        <v>48446</v>
-      </c>
-      <c r="E27" s="30">
-        <v>48424</v>
-      </c>
-      <c r="F27" s="30">
-        <v>46067</v>
-      </c>
-      <c r="G27" s="30">
-        <v>45714</v>
-      </c>
-      <c r="H27" s="30">
-        <v>45207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="30">
-        <v>96759</v>
-      </c>
-      <c r="D28" s="30">
-        <v>121430</v>
-      </c>
-      <c r="E28" s="30">
-        <v>115701</v>
-      </c>
-      <c r="F28" s="30">
-        <v>110313</v>
-      </c>
-      <c r="G28" s="30">
-        <v>110332</v>
-      </c>
-      <c r="H28" s="30">
-        <v>110118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="30">
-        <v>79053</v>
-      </c>
-      <c r="D29" s="30">
-        <v>116743</v>
-      </c>
-      <c r="E29" s="30">
-        <v>106854</v>
-      </c>
-      <c r="F29" s="30">
-        <v>104845</v>
-      </c>
-      <c r="G29" s="30">
-        <v>104809</v>
-      </c>
-      <c r="H29" s="30">
-        <v>105916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="30">
-        <v>51990</v>
-      </c>
-      <c r="D30" s="30">
-        <v>62442</v>
-      </c>
-      <c r="E30" s="30">
-        <v>66770</v>
-      </c>
-      <c r="F30" s="30">
-        <v>96588</v>
-      </c>
-      <c r="G30" s="30">
-        <v>104321</v>
-      </c>
-      <c r="H30" s="30">
-        <v>119473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="30">
-        <v>284785</v>
-      </c>
-      <c r="D31" s="30">
-        <v>380060</v>
-      </c>
-      <c r="E31" s="30">
-        <v>376901</v>
-      </c>
-      <c r="F31" s="30">
-        <v>360074</v>
-      </c>
-      <c r="G31" s="30">
-        <v>357479</v>
-      </c>
-      <c r="H31" s="30">
-        <v>355613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="30">
-        <v>96377</v>
-      </c>
-      <c r="D32" s="30">
-        <v>147976</v>
-      </c>
-      <c r="E32" s="30">
-        <v>141773</v>
-      </c>
-      <c r="F32" s="30">
-        <v>124385</v>
-      </c>
-      <c r="G32" s="30">
-        <v>120692</v>
-      </c>
-      <c r="H32" s="30">
-        <v>115954</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="30">
-        <v>839423</v>
-      </c>
-      <c r="D33" s="30">
-        <v>1059332</v>
-      </c>
-      <c r="E33" s="30">
-        <v>1070674</v>
-      </c>
-      <c r="F33" s="30">
-        <v>1048058</v>
-      </c>
-      <c r="G33" s="30">
-        <v>1033325</v>
-      </c>
-      <c r="H33" s="30">
-        <v>1017768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="30">
-        <v>358912</v>
-      </c>
-      <c r="D34" s="30">
-        <v>516254</v>
-      </c>
-      <c r="E34" s="30">
-        <v>508495</v>
-      </c>
-      <c r="F34" s="30">
-        <v>490350</v>
-      </c>
-      <c r="G34" s="30">
-        <v>488859</v>
-      </c>
-      <c r="H34" s="30">
-        <v>489833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="30">
-        <v>36899</v>
-      </c>
-      <c r="D35" s="30">
-        <v>50003</v>
-      </c>
-      <c r="E35" s="30">
-        <v>48196</v>
-      </c>
-      <c r="F35" s="30">
-        <v>46568</v>
-      </c>
-      <c r="G35" s="30">
-        <v>46669</v>
-      </c>
-      <c r="H35" s="30">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="30">
-        <v>469999</v>
-      </c>
-      <c r="D36" s="30">
-        <v>650546</v>
-      </c>
-      <c r="E36" s="30">
-        <v>619564</v>
-      </c>
-      <c r="F36" s="30">
-        <v>574217</v>
-      </c>
-      <c r="G36" s="30">
-        <v>567491</v>
-      </c>
-      <c r="H36" s="30">
-        <v>560843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="30">
-        <v>157021</v>
-      </c>
-      <c r="D37" s="30">
-        <v>204217</v>
-      </c>
-      <c r="E37" s="30">
-        <v>202092</v>
-      </c>
-      <c r="F37" s="30">
-        <v>185545</v>
-      </c>
-      <c r="G37" s="30">
-        <v>182743</v>
-      </c>
-      <c r="H37" s="30">
-        <v>177139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="30">
-        <v>160805</v>
-      </c>
-      <c r="D38" s="30">
-        <v>221825</v>
-      </c>
-      <c r="E38" s="30">
-        <v>225425</v>
-      </c>
-      <c r="F38" s="30">
-        <v>206895</v>
-      </c>
-      <c r="G38" s="30">
-        <v>204626</v>
-      </c>
-      <c r="H38" s="30">
-        <v>198198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="30">
-        <v>506948</v>
-      </c>
-      <c r="D39" s="30">
-        <v>664384</v>
-      </c>
-      <c r="E39" s="30">
-        <v>640440</v>
-      </c>
-      <c r="F39" s="30">
-        <v>598510</v>
-      </c>
-      <c r="G39" s="30">
-        <v>584400</v>
-      </c>
-      <c r="H39" s="30">
-        <v>573544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="30">
-        <v>65067</v>
-      </c>
-      <c r="D40" s="30">
-        <v>73974</v>
-      </c>
-      <c r="E40" s="30">
-        <v>73338</v>
-      </c>
-      <c r="F40" s="30">
-        <v>71972</v>
-      </c>
-      <c r="G40" s="30">
-        <v>72496</v>
-      </c>
-      <c r="H40" s="30">
-        <v>71401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="30">
-        <v>161699</v>
-      </c>
-      <c r="D41" s="30">
-        <v>231375</v>
-      </c>
-      <c r="E41" s="30">
-        <v>233835</v>
-      </c>
-      <c r="F41" s="30">
-        <v>223671</v>
-      </c>
-      <c r="G41" s="30">
-        <v>220218</v>
-      </c>
-      <c r="H41" s="30">
-        <v>219949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="30">
-        <v>37497</v>
-      </c>
-      <c r="D42" s="30">
-        <v>50605</v>
-      </c>
-      <c r="E42" s="30">
-        <v>49259</v>
-      </c>
-      <c r="F42" s="30">
-        <v>46901</v>
-      </c>
-      <c r="G42" s="30">
-        <v>46726</v>
-      </c>
-      <c r="H42" s="30">
-        <v>46809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="30">
-        <v>230376</v>
-      </c>
-      <c r="D43" s="30">
-        <v>302248</v>
-      </c>
-      <c r="E43" s="30">
-        <v>295126</v>
-      </c>
-      <c r="F43" s="30">
-        <v>277409</v>
-      </c>
-      <c r="G43" s="30">
-        <v>274666</v>
-      </c>
-      <c r="H43" s="30">
-        <v>275340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="30">
-        <v>905649</v>
-      </c>
-      <c r="D44" s="30">
-        <v>1360528</v>
-      </c>
-      <c r="E44" s="30">
-        <v>1367078</v>
-      </c>
-      <c r="F44" s="30">
-        <v>1390972</v>
-      </c>
-      <c r="G44" s="30">
-        <v>1412148</v>
-      </c>
-      <c r="H44" s="30">
-        <v>1437386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="30">
-        <v>149954</v>
-      </c>
-      <c r="D45" s="30">
-        <v>231721</v>
-      </c>
-      <c r="E45" s="30">
-        <v>239025</v>
-      </c>
-      <c r="F45" s="30">
-        <v>259006</v>
-      </c>
-      <c r="G45" s="30">
-        <v>272520</v>
-      </c>
-      <c r="H45" s="30">
-        <v>287468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="30">
-        <v>30809</v>
-      </c>
-      <c r="D46" s="30">
-        <v>38608</v>
-      </c>
-      <c r="E46" s="30">
-        <v>37792</v>
-      </c>
-      <c r="F46" s="30">
-        <v>37298</v>
-      </c>
-      <c r="G46" s="30">
-        <v>37784</v>
-      </c>
-      <c r="H46" s="30">
-        <v>37233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="30">
-        <v>325395</v>
-      </c>
-      <c r="D47" s="30">
-        <v>486820</v>
-      </c>
-      <c r="E47" s="30">
-        <v>492564</v>
-      </c>
-      <c r="F47" s="30">
-        <v>474525</v>
-      </c>
-      <c r="G47" s="30">
-        <v>462335</v>
-      </c>
-      <c r="H47" s="30">
-        <v>457708</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="30">
-        <v>290292</v>
-      </c>
-      <c r="D48" s="30">
-        <v>351863</v>
-      </c>
-      <c r="E48" s="30">
-        <v>329638</v>
-      </c>
-      <c r="F48" s="30">
-        <v>328355</v>
-      </c>
-      <c r="G48" s="30">
-        <v>329698</v>
-      </c>
-      <c r="H48" s="30">
-        <v>331253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="30">
-        <v>76556</v>
-      </c>
-      <c r="D49" s="30">
-        <v>128335</v>
-      </c>
-      <c r="E49" s="30">
-        <v>136166</v>
-      </c>
-      <c r="F49" s="30">
-        <v>127619</v>
-      </c>
-      <c r="G49" s="30">
-        <v>123779</v>
-      </c>
-      <c r="H49" s="30">
-        <v>120976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="30">
-        <v>271839</v>
-      </c>
-      <c r="D50" s="30">
-        <v>341698</v>
-      </c>
-      <c r="E50" s="30">
-        <v>329778</v>
-      </c>
-      <c r="F50" s="30">
-        <v>310350</v>
-      </c>
-      <c r="G50" s="30">
-        <v>302211</v>
-      </c>
-      <c r="H50" s="30">
-        <v>301126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="30">
+      <c r="B52" s="36">
         <v>26811</v>
       </c>
-      <c r="D51" s="30">
+      <c r="C52" s="36">
         <v>35466</v>
       </c>
-      <c r="E51" s="30">
+      <c r="D52" s="36">
         <v>35103</v>
       </c>
-      <c r="F51" s="30">
+      <c r="E52" s="36">
         <v>31602</v>
       </c>
-      <c r="G51" s="30">
+      <c r="F52" s="36">
         <v>30787</v>
       </c>
-      <c r="H51" s="30">
+      <c r="G52" s="36">
         <v>30409</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="0.9" header="0.5" footer="0.5"/>
-  <pageSetup scale="77" fitToHeight="2" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"Courier New,Regular"&amp;9&amp;08 &amp;A_x000D_
- Page &amp;P of &amp;N </oddHeader>
-    <oddFooter>&amp;R&amp;"Courier New,Regular"&amp;9Printed: &amp;D &amp;T</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ch4/tabn304_70.xlsx
+++ b/ch4/tabn304_70.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF69FE5-A604-4DE9-A91D-D1305A306F12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31780260-5ADE-4E69-8FC5-0B9014B9F8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Digest 2018 Table 304.70" sheetId="1" r:id="rId1"/>
-    <sheet name="reformatted" sheetId="2" r:id="rId2"/>
+    <sheet name="HSGrad" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
@@ -686,100 +686,76 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="39" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -789,6 +765,30 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,45 +1124,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="2">
         <v>2000</v>
       </c>
@@ -3949,38 +3949,38 @@
       </c>
     </row>
     <row r="78" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
     </row>
     <row r="79" spans="1:13" s="7" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
     </row>
     <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
@@ -4080,12 +4080,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A79:M79"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="A78:M78"/>
-    <mergeCell ref="A79:M79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.9" header="0.5" footer="0.5"/>
   <pageSetup scale="77" fitToHeight="2" orientation="landscape" r:id="rId1"/>
@@ -4115,1199 +4115,1199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="28">
         <v>201389</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="28">
         <v>282128</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="28">
         <v>265917</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="28">
         <v>257649</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="28">
         <v>258008</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="28">
         <v>259562</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="28">
         <v>26222</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="28">
         <v>31925</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="28">
         <v>30018</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="28">
         <v>28818</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="28">
         <v>25987</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="28">
         <v>24607</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="28">
         <v>299529</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="28">
         <v>672083</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="28">
         <v>621684</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="28">
         <v>541853</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="28">
         <v>510367</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="28">
         <v>493410</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="28">
         <v>104580</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="28">
         <v>156970</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="28">
         <v>157504</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="28">
         <v>148630</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="28">
         <v>145875</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="28">
         <v>143055</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="28">
         <v>2012213</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="28">
         <v>2444496</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="28">
         <v>2359805</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="28">
         <v>2415506</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="28">
         <v>2416526</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="28">
         <v>2415337</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="28">
         <v>220059</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="28">
         <v>312099</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="28">
         <v>305465</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="28">
         <v>289534</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="28">
         <v>293223</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="28">
         <v>299805</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="28">
         <v>127715</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="28">
         <v>163291</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="28">
         <v>166812</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="28">
         <v>162925</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="28">
         <v>160651</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="28">
         <v>160568</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="28">
         <v>37930</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="28">
         <v>45848</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="28">
         <v>47815</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="28">
         <v>47981</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="28">
         <v>49047</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="28">
         <v>49068</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="28">
         <v>40703</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="28">
         <v>50330</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="28">
         <v>47699</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="28">
         <v>50556</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="28">
         <v>48948</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="28">
         <v>50565</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="28">
         <v>623071</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="28">
         <v>993545</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="28">
         <v>1023378</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="28">
         <v>956598</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="28">
         <v>947837</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="28">
         <v>944323</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="28">
         <v>296980</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="28">
         <v>499187</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="28">
         <v>476815</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="28">
         <v>456792</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="28">
         <v>457293</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="28">
         <v>459860</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="28">
         <v>51783</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="28">
         <v>68244</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="28">
         <v>69272</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="28">
         <v>61367</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="28">
         <v>58328</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="28">
         <v>56968</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="28">
         <v>58644</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="28">
         <v>76998</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="28">
         <v>99901</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="28">
         <v>113245</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="28">
         <v>115259</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="28">
         <v>123597</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="28">
         <v>623018</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="28">
         <v>748921</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="28">
         <v>713472</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="28">
         <v>650597</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="28">
         <v>626068</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="28">
         <v>604973</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="28">
         <v>273198</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="28">
         <v>404033</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="28">
         <v>392626</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="28">
         <v>369200</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="28">
         <v>360576</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="28">
         <v>339666</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="28">
         <v>165360</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="28">
         <v>339036</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="28">
         <v>315424</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="28">
         <v>237013</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="28">
         <v>229452</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="28">
         <v>224341</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="28">
         <v>156385</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="28">
         <v>188326</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="28">
         <v>187921</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="28">
         <v>191680</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="28">
         <v>187934</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="28">
         <v>186190</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="28">
         <v>164183</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="28">
         <v>256447</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="28">
         <v>244950</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="28">
         <v>219870</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="28">
         <v>216868</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="28">
         <v>215826</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="28">
         <v>191517</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="28">
         <v>230370</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="28">
         <v>227290</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="28">
         <v>214594</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="28">
         <v>209521</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="28">
         <v>210828</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="28">
         <v>50728</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="28">
         <v>63599</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="28">
         <v>63369</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="28">
         <v>62252</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="28">
         <v>62456</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="28">
         <v>61919</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="28">
         <v>221952</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="28">
         <v>305358</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="28">
         <v>302485</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="28">
         <v>294032</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="28">
         <v>295200</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="28">
         <v>291356</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="28">
         <v>320012</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="28">
         <v>377241</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="28">
         <v>381253</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="28">
         <v>374979</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="28">
         <v>367735</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="28">
         <v>362741</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="28">
         <v>480618</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="28">
         <v>605990</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="28">
         <v>575388</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="28">
         <v>517079</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="28">
         <v>500050</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="28">
         <v>476450</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="28">
         <v>254632</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="28">
         <v>346864</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="28">
         <v>335747</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="28">
         <v>311536</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="28">
         <v>303941</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="28">
         <v>297523</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="28">
         <v>123299</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="28">
         <v>159262</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="28">
         <v>155292</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="28">
         <v>153551</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="28">
         <v>151467</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="28">
         <v>151403</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="28">
         <v>266802</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="28">
         <v>367032</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="28">
         <v>363123</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="28">
         <v>331955</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="28">
         <v>324162</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="28">
         <v>308402</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="28">
         <v>38481</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="28">
         <v>48446</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="28">
         <v>48424</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="28">
         <v>46067</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="28">
         <v>45714</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="28">
         <v>45207</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="28">
         <v>96759</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="28">
         <v>121430</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="28">
         <v>115701</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="28">
         <v>110313</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="28">
         <v>110332</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="28">
         <v>110118</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="28">
         <v>79053</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="28">
         <v>116743</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="28">
         <v>106854</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="28">
         <v>104845</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="28">
         <v>104809</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="28">
         <v>105916</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="28">
         <v>51990</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="28">
         <v>62442</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="28">
         <v>66770</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="28">
         <v>96588</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="28">
         <v>104321</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="28">
         <v>119473</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="28">
         <v>284785</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="28">
         <v>380060</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="28">
         <v>376901</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="28">
         <v>360074</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="28">
         <v>357479</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="28">
         <v>355613</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="28">
         <v>96377</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="28">
         <v>147976</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="28">
         <v>141773</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="28">
         <v>124385</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="28">
         <v>120692</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="28">
         <v>115954</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="28">
         <v>839423</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="28">
         <v>1059332</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="28">
         <v>1070674</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="28">
         <v>1048058</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="28">
         <v>1033325</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="28">
         <v>1017768</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="28">
         <v>358912</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="28">
         <v>516254</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="28">
         <v>508495</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="28">
         <v>490350</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="28">
         <v>488859</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="28">
         <v>489833</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="28">
         <v>36899</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="28">
         <v>50003</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="28">
         <v>48196</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="28">
         <v>46568</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="28">
         <v>46669</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="28">
         <v>46064</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="28">
         <v>469999</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="28">
         <v>650546</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="28">
         <v>619564</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="28">
         <v>574217</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="28">
         <v>567491</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="28">
         <v>560843</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="28">
         <v>157021</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="28">
         <v>204217</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="28">
         <v>202092</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="28">
         <v>185545</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="28">
         <v>182743</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="28">
         <v>177139</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="28">
         <v>160805</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="28">
         <v>221825</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="28">
         <v>225425</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="28">
         <v>206895</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="28">
         <v>204626</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="28">
         <v>198198</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="28">
         <v>506948</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="28">
         <v>664384</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="28">
         <v>640440</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="28">
         <v>598510</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="28">
         <v>584400</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="28">
         <v>573544</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="28">
         <v>65067</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="28">
         <v>73974</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="28">
         <v>73338</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="28">
         <v>71972</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="28">
         <v>72496</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="28">
         <v>71401</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="28">
         <v>161699</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="28">
         <v>231375</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="28">
         <v>233835</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="28">
         <v>223671</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="28">
         <v>220218</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="28">
         <v>219949</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="28">
         <v>37497</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="28">
         <v>50605</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="28">
         <v>49259</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="28">
         <v>46901</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="28">
         <v>46726</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="28">
         <v>46809</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="28">
         <v>230376</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="28">
         <v>302248</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="28">
         <v>295126</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="28">
         <v>277409</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="28">
         <v>274666</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="28">
         <v>275340</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="28">
         <v>905649</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="28">
         <v>1360528</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="28">
         <v>1367078</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="28">
         <v>1390972</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="28">
         <v>1412148</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="28">
         <v>1437386</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="28">
         <v>149954</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="28">
         <v>231721</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="28">
         <v>239025</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="28">
         <v>259006</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="28">
         <v>272520</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="28">
         <v>287468</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="28">
         <v>30809</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="28">
         <v>38608</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="28">
         <v>37792</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="28">
         <v>37298</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="28">
         <v>37784</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="28">
         <v>37233</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="28">
         <v>325395</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="28">
         <v>486820</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="28">
         <v>492564</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="28">
         <v>474525</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="28">
         <v>462335</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="28">
         <v>457708</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="28">
         <v>290292</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="28">
         <v>351863</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="28">
         <v>329638</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="28">
         <v>328355</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="28">
         <v>329698</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="28">
         <v>331253</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="28">
         <v>76556</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="28">
         <v>128335</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="28">
         <v>136166</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="28">
         <v>127619</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="28">
         <v>123779</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="28">
         <v>120976</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="28">
         <v>271839</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="28">
         <v>341698</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="28">
         <v>329778</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="28">
         <v>310350</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="28">
         <v>302211</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="28">
         <v>301126</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="28">
         <v>26811</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="28">
         <v>35466</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="28">
         <v>35103</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="28">
         <v>31602</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="28">
         <v>30787</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="28">
         <v>30409</v>
       </c>
     </row>

--- a/ch4/tabn304_70.xlsx
+++ b/ch4/tabn304_70.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF69FE5-A604-4DE9-A91D-D1305A306F12}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D0FE0C3-8E5D-4891-ACA6-71C4FE5291BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31780260-5ADE-4E69-8FC5-0B9014B9F8A7}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Courier"/>
@@ -447,11 +447,6 @@
     <font>
       <sz val="12"/>
       <name val="Courier"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,11 +755,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -787,9 +782,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,6 +797,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3966,21 +3962,21 @@
       <c r="M78" s="39"/>
     </row>
     <row r="79" spans="1:13" s="7" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
     </row>
     <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
@@ -4102,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C35D47A-F853-4E1A-BA41-06BC61FACA84}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K24" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4114,30 +4110,30 @@
     <col min="2" max="7" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>75</v>
       </c>
@@ -4159,9 +4155,8 @@
       <c r="G2" s="28">
         <v>259562</v>
       </c>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>76</v>
       </c>
@@ -4184,7 +4179,7 @@
         <v>24607</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>77</v>
       </c>
@@ -4207,7 +4202,7 @@
         <v>493410</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>78</v>
       </c>
@@ -4230,7 +4225,7 @@
         <v>143055</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>79</v>
       </c>
@@ -4253,7 +4248,7 @@
         <v>2415337</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>80</v>
       </c>
@@ -4276,7 +4271,7 @@
         <v>299805</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>81</v>
       </c>
@@ -4299,7 +4294,7 @@
         <v>160568</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>82</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>49068</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>83</v>
       </c>
@@ -4345,7 +4340,7 @@
         <v>50565</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>84</v>
       </c>
@@ -4368,7 +4363,7 @@
         <v>944323</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>85</v>
       </c>
@@ -4391,7 +4386,7 @@
         <v>459860</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>86</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>56968</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>87</v>
       </c>
@@ -4437,7 +4432,7 @@
         <v>123597</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>88</v>
       </c>
@@ -4460,7 +4455,7 @@
         <v>604973</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>89</v>
       </c>

--- a/ch4/tabn304_70.xlsx
+++ b/ch4/tabn304_70.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/709290408fa44f9b/Documents/GitHub/data/ch4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D0FE0C3-8E5D-4891-ACA6-71C4FE5291BB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{9A535F7F-5B84-4454-BF6D-9F40EACDC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F38D289-49BB-4066-BBCB-B7999BA15DB3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31780260-5ADE-4E69-8FC5-0B9014B9F8A7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Table 304.70. Total fall enrollment in degree-granting postsecondary institutions, by level of enrollment and state or jurisdiction: Selected
               years, 2000 through 2017</t>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wyoming                    </t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,6 +784,10 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4098,1211 +4105,1416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C35D47A-F853-4E1A-BA41-06BC61FACA84}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K23:K24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="28">
+      <c r="C2" s="28">
         <v>201389</v>
       </c>
-      <c r="C2" s="28">
+      <c r="D2" s="28">
         <v>282128</v>
       </c>
-      <c r="D2" s="28">
+      <c r="E2" s="28">
         <v>265917</v>
       </c>
-      <c r="E2" s="28">
+      <c r="F2" s="28">
         <v>257649</v>
       </c>
-      <c r="F2" s="28">
+      <c r="G2" s="28">
         <v>258008</v>
       </c>
-      <c r="G2" s="28">
+      <c r="H2" s="28">
         <v>259562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="28">
+      <c r="C3" s="28">
         <v>26222</v>
       </c>
-      <c r="C3" s="28">
+      <c r="D3" s="28">
         <v>31925</v>
       </c>
-      <c r="D3" s="28">
+      <c r="E3" s="28">
         <v>30018</v>
       </c>
-      <c r="E3" s="28">
+      <c r="F3" s="28">
         <v>28818</v>
       </c>
-      <c r="F3" s="28">
+      <c r="G3" s="28">
         <v>25987</v>
       </c>
-      <c r="G3" s="28">
+      <c r="H3" s="28">
         <v>24607</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
+        <f t="shared" ref="A4:A52" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="28">
+      <c r="C4" s="28">
         <v>299529</v>
       </c>
-      <c r="C4" s="28">
+      <c r="D4" s="28">
         <v>672083</v>
       </c>
-      <c r="D4" s="28">
+      <c r="E4" s="28">
         <v>621684</v>
       </c>
-      <c r="E4" s="28">
+      <c r="F4" s="28">
         <v>541853</v>
       </c>
-      <c r="F4" s="28">
+      <c r="G4" s="28">
         <v>510367</v>
       </c>
-      <c r="G4" s="28">
+      <c r="H4" s="28">
         <v>493410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="28">
+      <c r="C5" s="28">
         <v>104580</v>
       </c>
-      <c r="C5" s="28">
+      <c r="D5" s="28">
         <v>156970</v>
       </c>
-      <c r="D5" s="28">
+      <c r="E5" s="28">
         <v>157504</v>
       </c>
-      <c r="E5" s="28">
+      <c r="F5" s="28">
         <v>148630</v>
       </c>
-      <c r="F5" s="28">
+      <c r="G5" s="28">
         <v>145875</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="28">
         <v>143055</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="28">
+      <c r="C6" s="28">
         <v>2012213</v>
       </c>
-      <c r="C6" s="28">
+      <c r="D6" s="28">
         <v>2444496</v>
       </c>
-      <c r="D6" s="28">
+      <c r="E6" s="28">
         <v>2359805</v>
       </c>
-      <c r="E6" s="28">
+      <c r="F6" s="28">
         <v>2415506</v>
       </c>
-      <c r="F6" s="28">
+      <c r="G6" s="28">
         <v>2416526</v>
       </c>
-      <c r="G6" s="28">
+      <c r="H6" s="28">
         <v>2415337</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="28">
+      <c r="C7" s="28">
         <v>220059</v>
       </c>
-      <c r="C7" s="28">
+      <c r="D7" s="28">
         <v>312099</v>
       </c>
-      <c r="D7" s="28">
+      <c r="E7" s="28">
         <v>305465</v>
       </c>
-      <c r="E7" s="28">
+      <c r="F7" s="28">
         <v>289534</v>
       </c>
-      <c r="F7" s="28">
+      <c r="G7" s="28">
         <v>293223</v>
       </c>
-      <c r="G7" s="28">
+      <c r="H7" s="28">
         <v>299805</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="28">
+      <c r="C8" s="28">
         <v>127715</v>
       </c>
-      <c r="C8" s="28">
+      <c r="D8" s="28">
         <v>163291</v>
       </c>
-      <c r="D8" s="28">
+      <c r="E8" s="28">
         <v>166812</v>
       </c>
-      <c r="E8" s="28">
+      <c r="F8" s="28">
         <v>162925</v>
       </c>
-      <c r="F8" s="28">
+      <c r="G8" s="28">
         <v>160651</v>
       </c>
-      <c r="G8" s="28">
+      <c r="H8" s="28">
         <v>160568</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="28">
+      <c r="C9" s="28">
         <v>37930</v>
       </c>
-      <c r="C9" s="28">
+      <c r="D9" s="28">
         <v>45848</v>
       </c>
-      <c r="D9" s="28">
+      <c r="E9" s="28">
         <v>47815</v>
       </c>
-      <c r="E9" s="28">
+      <c r="F9" s="28">
         <v>47981</v>
       </c>
-      <c r="F9" s="28">
+      <c r="G9" s="28">
         <v>49047</v>
       </c>
-      <c r="G9" s="28">
+      <c r="H9" s="28">
         <v>49068</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="28">
+      <c r="C10" s="28">
         <v>40703</v>
       </c>
-      <c r="C10" s="28">
+      <c r="D10" s="28">
         <v>50330</v>
       </c>
-      <c r="D10" s="28">
+      <c r="E10" s="28">
         <v>47699</v>
       </c>
-      <c r="E10" s="28">
+      <c r="F10" s="28">
         <v>50556</v>
       </c>
-      <c r="F10" s="28">
+      <c r="G10" s="28">
         <v>48948</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <v>50565</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="28">
+      <c r="C11" s="28">
         <v>623071</v>
       </c>
-      <c r="C11" s="28">
+      <c r="D11" s="28">
         <v>993545</v>
       </c>
-      <c r="D11" s="28">
+      <c r="E11" s="28">
         <v>1023378</v>
       </c>
-      <c r="E11" s="28">
+      <c r="F11" s="28">
         <v>956598</v>
       </c>
-      <c r="F11" s="28">
+      <c r="G11" s="28">
         <v>947837</v>
       </c>
-      <c r="G11" s="28">
+      <c r="H11" s="28">
         <v>944323</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="28">
+      <c r="C12" s="28">
         <v>296980</v>
       </c>
-      <c r="C12" s="28">
+      <c r="D12" s="28">
         <v>499187</v>
       </c>
-      <c r="D12" s="28">
+      <c r="E12" s="28">
         <v>476815</v>
       </c>
-      <c r="E12" s="28">
+      <c r="F12" s="28">
         <v>456792</v>
       </c>
-      <c r="F12" s="28">
+      <c r="G12" s="28">
         <v>457293</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="28">
         <v>459860</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="28">
+      <c r="C13" s="28">
         <v>51783</v>
       </c>
-      <c r="C13" s="28">
+      <c r="D13" s="28">
         <v>68244</v>
       </c>
-      <c r="D13" s="28">
+      <c r="E13" s="28">
         <v>69272</v>
       </c>
-      <c r="E13" s="28">
+      <c r="F13" s="28">
         <v>61367</v>
       </c>
-      <c r="F13" s="28">
+      <c r="G13" s="28">
         <v>58328</v>
       </c>
-      <c r="G13" s="28">
+      <c r="H13" s="28">
         <v>56968</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="28">
+      <c r="C14" s="28">
         <v>58644</v>
       </c>
-      <c r="C14" s="28">
+      <c r="D14" s="28">
         <v>76998</v>
       </c>
-      <c r="D14" s="28">
+      <c r="E14" s="28">
         <v>99901</v>
       </c>
-      <c r="E14" s="28">
+      <c r="F14" s="28">
         <v>113245</v>
       </c>
-      <c r="F14" s="28">
+      <c r="G14" s="28">
         <v>115259</v>
       </c>
-      <c r="G14" s="28">
+      <c r="H14" s="28">
         <v>123597</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="28">
+      <c r="C15" s="28">
         <v>623018</v>
       </c>
-      <c r="C15" s="28">
+      <c r="D15" s="28">
         <v>748921</v>
       </c>
-      <c r="D15" s="28">
+      <c r="E15" s="28">
         <v>713472</v>
       </c>
-      <c r="E15" s="28">
+      <c r="F15" s="28">
         <v>650597</v>
       </c>
-      <c r="F15" s="28">
+      <c r="G15" s="28">
         <v>626068</v>
       </c>
-      <c r="G15" s="28">
+      <c r="H15" s="28">
         <v>604973</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="28">
+      <c r="C16" s="28">
         <v>273198</v>
       </c>
-      <c r="C16" s="28">
+      <c r="D16" s="28">
         <v>404033</v>
       </c>
-      <c r="D16" s="28">
+      <c r="E16" s="28">
         <v>392626</v>
       </c>
-      <c r="E16" s="28">
+      <c r="F16" s="28">
         <v>369200</v>
       </c>
-      <c r="F16" s="28">
+      <c r="G16" s="28">
         <v>360576</v>
       </c>
-      <c r="G16" s="28">
+      <c r="H16" s="28">
         <v>339666</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="28">
+      <c r="C17" s="28">
         <v>165360</v>
       </c>
-      <c r="C17" s="28">
+      <c r="D17" s="28">
         <v>339036</v>
       </c>
-      <c r="D17" s="28">
+      <c r="E17" s="28">
         <v>315424</v>
       </c>
-      <c r="E17" s="28">
+      <c r="F17" s="28">
         <v>237013</v>
       </c>
-      <c r="F17" s="28">
+      <c r="G17" s="28">
         <v>229452</v>
       </c>
-      <c r="G17" s="28">
+      <c r="H17" s="28">
         <v>224341</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="28">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="28">
+      <c r="C18" s="28">
         <v>156385</v>
       </c>
-      <c r="C18" s="28">
+      <c r="D18" s="28">
         <v>188326</v>
       </c>
-      <c r="D18" s="28">
+      <c r="E18" s="28">
         <v>187921</v>
       </c>
-      <c r="E18" s="28">
+      <c r="F18" s="28">
         <v>191680</v>
       </c>
-      <c r="F18" s="28">
+      <c r="G18" s="28">
         <v>187934</v>
       </c>
-      <c r="G18" s="28">
+      <c r="H18" s="28">
         <v>186190</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="28">
+      <c r="C19" s="28">
         <v>164183</v>
       </c>
-      <c r="C19" s="28">
+      <c r="D19" s="28">
         <v>256447</v>
       </c>
-      <c r="D19" s="28">
+      <c r="E19" s="28">
         <v>244950</v>
       </c>
-      <c r="E19" s="28">
+      <c r="F19" s="28">
         <v>219870</v>
       </c>
-      <c r="F19" s="28">
+      <c r="G19" s="28">
         <v>216868</v>
       </c>
-      <c r="G19" s="28">
+      <c r="H19" s="28">
         <v>215826</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="28">
+      <c r="C20" s="28">
         <v>191517</v>
       </c>
-      <c r="C20" s="28">
+      <c r="D20" s="28">
         <v>230370</v>
       </c>
-      <c r="D20" s="28">
+      <c r="E20" s="28">
         <v>227290</v>
       </c>
-      <c r="E20" s="28">
+      <c r="F20" s="28">
         <v>214594</v>
       </c>
-      <c r="F20" s="28">
+      <c r="G20" s="28">
         <v>209521</v>
       </c>
-      <c r="G20" s="28">
+      <c r="H20" s="28">
         <v>210828</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="28">
+      <c r="C21" s="28">
         <v>50728</v>
       </c>
-      <c r="C21" s="28">
+      <c r="D21" s="28">
         <v>63599</v>
       </c>
-      <c r="D21" s="28">
+      <c r="E21" s="28">
         <v>63369</v>
       </c>
-      <c r="E21" s="28">
+      <c r="F21" s="28">
         <v>62252</v>
       </c>
-      <c r="F21" s="28">
+      <c r="G21" s="28">
         <v>62456</v>
       </c>
-      <c r="G21" s="28">
+      <c r="H21" s="28">
         <v>61919</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="28">
+      <c r="C22" s="28">
         <v>221952</v>
       </c>
-      <c r="C22" s="28">
+      <c r="D22" s="28">
         <v>305358</v>
       </c>
-      <c r="D22" s="28">
+      <c r="E22" s="28">
         <v>302485</v>
       </c>
-      <c r="E22" s="28">
+      <c r="F22" s="28">
         <v>294032</v>
       </c>
-      <c r="F22" s="28">
+      <c r="G22" s="28">
         <v>295200</v>
       </c>
-      <c r="G22" s="28">
+      <c r="H22" s="28">
         <v>291356</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="28">
+      <c r="C23" s="28">
         <v>320012</v>
       </c>
-      <c r="C23" s="28">
+      <c r="D23" s="28">
         <v>377241</v>
       </c>
-      <c r="D23" s="28">
+      <c r="E23" s="28">
         <v>381253</v>
       </c>
-      <c r="E23" s="28">
+      <c r="F23" s="28">
         <v>374979</v>
       </c>
-      <c r="F23" s="28">
+      <c r="G23" s="28">
         <v>367735</v>
       </c>
-      <c r="G23" s="28">
+      <c r="H23" s="28">
         <v>362741</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="28">
+      <c r="C24" s="28">
         <v>480618</v>
       </c>
-      <c r="C24" s="28">
+      <c r="D24" s="28">
         <v>605990</v>
       </c>
-      <c r="D24" s="28">
+      <c r="E24" s="28">
         <v>575388</v>
       </c>
-      <c r="E24" s="28">
+      <c r="F24" s="28">
         <v>517079</v>
       </c>
-      <c r="F24" s="28">
+      <c r="G24" s="28">
         <v>500050</v>
       </c>
-      <c r="G24" s="28">
+      <c r="H24" s="28">
         <v>476450</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="28">
+      <c r="C25" s="28">
         <v>254632</v>
       </c>
-      <c r="C25" s="28">
+      <c r="D25" s="28">
         <v>346864</v>
       </c>
-      <c r="D25" s="28">
+      <c r="E25" s="28">
         <v>335747</v>
       </c>
-      <c r="E25" s="28">
+      <c r="F25" s="28">
         <v>311536</v>
       </c>
-      <c r="F25" s="28">
+      <c r="G25" s="28">
         <v>303941</v>
       </c>
-      <c r="G25" s="28">
+      <c r="H25" s="28">
         <v>297523</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="28">
+      <c r="C26" s="28">
         <v>123299</v>
       </c>
-      <c r="C26" s="28">
+      <c r="D26" s="28">
         <v>159262</v>
       </c>
-      <c r="D26" s="28">
+      <c r="E26" s="28">
         <v>155292</v>
       </c>
-      <c r="E26" s="28">
+      <c r="F26" s="28">
         <v>153551</v>
       </c>
-      <c r="F26" s="28">
+      <c r="G26" s="28">
         <v>151467</v>
       </c>
-      <c r="G26" s="28">
+      <c r="H26" s="28">
         <v>151403</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="28">
+      <c r="C27" s="28">
         <v>266802</v>
       </c>
-      <c r="C27" s="28">
+      <c r="D27" s="28">
         <v>367032</v>
       </c>
-      <c r="D27" s="28">
+      <c r="E27" s="28">
         <v>363123</v>
       </c>
-      <c r="E27" s="28">
+      <c r="F27" s="28">
         <v>331955</v>
       </c>
-      <c r="F27" s="28">
+      <c r="G27" s="28">
         <v>324162</v>
       </c>
-      <c r="G27" s="28">
+      <c r="H27" s="28">
         <v>308402</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="28">
+      <c r="C28" s="28">
         <v>38481</v>
       </c>
-      <c r="C28" s="28">
+      <c r="D28" s="28">
         <v>48446</v>
       </c>
-      <c r="D28" s="28">
+      <c r="E28" s="28">
         <v>48424</v>
       </c>
-      <c r="E28" s="28">
+      <c r="F28" s="28">
         <v>46067</v>
       </c>
-      <c r="F28" s="28">
+      <c r="G28" s="28">
         <v>45714</v>
       </c>
-      <c r="G28" s="28">
+      <c r="H28" s="28">
         <v>45207</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="28">
+      <c r="C29" s="28">
         <v>96759</v>
       </c>
-      <c r="C29" s="28">
+      <c r="D29" s="28">
         <v>121430</v>
       </c>
-      <c r="D29" s="28">
+      <c r="E29" s="28">
         <v>115701</v>
       </c>
-      <c r="E29" s="28">
+      <c r="F29" s="28">
         <v>110313</v>
       </c>
-      <c r="F29" s="28">
+      <c r="G29" s="28">
         <v>110332</v>
       </c>
-      <c r="G29" s="28">
+      <c r="H29" s="28">
         <v>110118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="28">
+      <c r="C30" s="28">
         <v>79053</v>
       </c>
-      <c r="C30" s="28">
+      <c r="D30" s="28">
         <v>116743</v>
       </c>
-      <c r="D30" s="28">
+      <c r="E30" s="28">
         <v>106854</v>
       </c>
-      <c r="E30" s="28">
+      <c r="F30" s="28">
         <v>104845</v>
       </c>
-      <c r="F30" s="28">
+      <c r="G30" s="28">
         <v>104809</v>
       </c>
-      <c r="G30" s="28">
+      <c r="H30" s="28">
         <v>105916</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="28">
+      <c r="C31" s="28">
         <v>51990</v>
       </c>
-      <c r="C31" s="28">
+      <c r="D31" s="28">
         <v>62442</v>
       </c>
-      <c r="D31" s="28">
+      <c r="E31" s="28">
         <v>66770</v>
       </c>
-      <c r="E31" s="28">
+      <c r="F31" s="28">
         <v>96588</v>
       </c>
-      <c r="F31" s="28">
+      <c r="G31" s="28">
         <v>104321</v>
       </c>
-      <c r="G31" s="28">
+      <c r="H31" s="28">
         <v>119473</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="28">
+      <c r="C32" s="28">
         <v>284785</v>
       </c>
-      <c r="C32" s="28">
+      <c r="D32" s="28">
         <v>380060</v>
       </c>
-      <c r="D32" s="28">
+      <c r="E32" s="28">
         <v>376901</v>
       </c>
-      <c r="E32" s="28">
+      <c r="F32" s="28">
         <v>360074</v>
       </c>
-      <c r="F32" s="28">
+      <c r="G32" s="28">
         <v>357479</v>
       </c>
-      <c r="G32" s="28">
+      <c r="H32" s="28">
         <v>355613</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="28">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="28">
+      <c r="C33" s="28">
         <v>96377</v>
       </c>
-      <c r="C33" s="28">
+      <c r="D33" s="28">
         <v>147976</v>
       </c>
-      <c r="D33" s="28">
+      <c r="E33" s="28">
         <v>141773</v>
       </c>
-      <c r="E33" s="28">
+      <c r="F33" s="28">
         <v>124385</v>
       </c>
-      <c r="F33" s="28">
+      <c r="G33" s="28">
         <v>120692</v>
       </c>
-      <c r="G33" s="28">
+      <c r="H33" s="28">
         <v>115954</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="28">
+      <c r="C34" s="28">
         <v>839423</v>
       </c>
-      <c r="C34" s="28">
+      <c r="D34" s="28">
         <v>1059332</v>
       </c>
-      <c r="D34" s="28">
+      <c r="E34" s="28">
         <v>1070674</v>
       </c>
-      <c r="E34" s="28">
+      <c r="F34" s="28">
         <v>1048058</v>
       </c>
-      <c r="F34" s="28">
+      <c r="G34" s="28">
         <v>1033325</v>
       </c>
-      <c r="G34" s="28">
+      <c r="H34" s="28">
         <v>1017768</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="28">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="28">
+      <c r="C35" s="28">
         <v>358912</v>
       </c>
-      <c r="C35" s="28">
+      <c r="D35" s="28">
         <v>516254</v>
       </c>
-      <c r="D35" s="28">
+      <c r="E35" s="28">
         <v>508495</v>
       </c>
-      <c r="E35" s="28">
+      <c r="F35" s="28">
         <v>490350</v>
       </c>
-      <c r="F35" s="28">
+      <c r="G35" s="28">
         <v>488859</v>
       </c>
-      <c r="G35" s="28">
+      <c r="H35" s="28">
         <v>489833</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="28">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="28">
+      <c r="C36" s="28">
         <v>36899</v>
       </c>
-      <c r="C36" s="28">
+      <c r="D36" s="28">
         <v>50003</v>
       </c>
-      <c r="D36" s="28">
+      <c r="E36" s="28">
         <v>48196</v>
       </c>
-      <c r="E36" s="28">
+      <c r="F36" s="28">
         <v>46568</v>
       </c>
-      <c r="F36" s="28">
+      <c r="G36" s="28">
         <v>46669</v>
       </c>
-      <c r="G36" s="28">
+      <c r="H36" s="28">
         <v>46064</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="28">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="28">
+      <c r="C37" s="28">
         <v>469999</v>
       </c>
-      <c r="C37" s="28">
+      <c r="D37" s="28">
         <v>650546</v>
       </c>
-      <c r="D37" s="28">
+      <c r="E37" s="28">
         <v>619564</v>
       </c>
-      <c r="E37" s="28">
+      <c r="F37" s="28">
         <v>574217</v>
       </c>
-      <c r="F37" s="28">
+      <c r="G37" s="28">
         <v>567491</v>
       </c>
-      <c r="G37" s="28">
+      <c r="H37" s="28">
         <v>560843</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="28">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="28">
+      <c r="C38" s="28">
         <v>157021</v>
       </c>
-      <c r="C38" s="28">
+      <c r="D38" s="28">
         <v>204217</v>
       </c>
-      <c r="D38" s="28">
+      <c r="E38" s="28">
         <v>202092</v>
       </c>
-      <c r="E38" s="28">
+      <c r="F38" s="28">
         <v>185545</v>
       </c>
-      <c r="F38" s="28">
+      <c r="G38" s="28">
         <v>182743</v>
       </c>
-      <c r="G38" s="28">
+      <c r="H38" s="28">
         <v>177139</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="28">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="28">
+      <c r="C39" s="28">
         <v>160805</v>
       </c>
-      <c r="C39" s="28">
+      <c r="D39" s="28">
         <v>221825</v>
       </c>
-      <c r="D39" s="28">
+      <c r="E39" s="28">
         <v>225425</v>
       </c>
-      <c r="E39" s="28">
+      <c r="F39" s="28">
         <v>206895</v>
       </c>
-      <c r="F39" s="28">
+      <c r="G39" s="28">
         <v>204626</v>
       </c>
-      <c r="G39" s="28">
+      <c r="H39" s="28">
         <v>198198</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="28">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="28">
+      <c r="C40" s="28">
         <v>506948</v>
       </c>
-      <c r="C40" s="28">
+      <c r="D40" s="28">
         <v>664384</v>
       </c>
-      <c r="D40" s="28">
+      <c r="E40" s="28">
         <v>640440</v>
       </c>
-      <c r="E40" s="28">
+      <c r="F40" s="28">
         <v>598510</v>
       </c>
-      <c r="F40" s="28">
+      <c r="G40" s="28">
         <v>584400</v>
       </c>
-      <c r="G40" s="28">
+      <c r="H40" s="28">
         <v>573544</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="28">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="28">
+      <c r="C41" s="28">
         <v>65067</v>
       </c>
-      <c r="C41" s="28">
+      <c r="D41" s="28">
         <v>73974</v>
       </c>
-      <c r="D41" s="28">
+      <c r="E41" s="28">
         <v>73338</v>
       </c>
-      <c r="E41" s="28">
+      <c r="F41" s="28">
         <v>71972</v>
       </c>
-      <c r="F41" s="28">
+      <c r="G41" s="28">
         <v>72496</v>
       </c>
-      <c r="G41" s="28">
+      <c r="H41" s="28">
         <v>71401</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="28">
+      <c r="C42" s="28">
         <v>161699</v>
       </c>
-      <c r="C42" s="28">
+      <c r="D42" s="28">
         <v>231375</v>
       </c>
-      <c r="D42" s="28">
+      <c r="E42" s="28">
         <v>233835</v>
       </c>
-      <c r="E42" s="28">
+      <c r="F42" s="28">
         <v>223671</v>
       </c>
-      <c r="F42" s="28">
+      <c r="G42" s="28">
         <v>220218</v>
       </c>
-      <c r="G42" s="28">
+      <c r="H42" s="28">
         <v>219949</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="28">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="28">
+      <c r="C43" s="28">
         <v>37497</v>
       </c>
-      <c r="C43" s="28">
+      <c r="D43" s="28">
         <v>50605</v>
       </c>
-      <c r="D43" s="28">
+      <c r="E43" s="28">
         <v>49259</v>
       </c>
-      <c r="E43" s="28">
+      <c r="F43" s="28">
         <v>46901</v>
       </c>
-      <c r="F43" s="28">
+      <c r="G43" s="28">
         <v>46726</v>
       </c>
-      <c r="G43" s="28">
+      <c r="H43" s="28">
         <v>46809</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="28">
+      <c r="C44" s="28">
         <v>230376</v>
       </c>
-      <c r="C44" s="28">
+      <c r="D44" s="28">
         <v>302248</v>
       </c>
-      <c r="D44" s="28">
+      <c r="E44" s="28">
         <v>295126</v>
       </c>
-      <c r="E44" s="28">
+      <c r="F44" s="28">
         <v>277409</v>
       </c>
-      <c r="F44" s="28">
+      <c r="G44" s="28">
         <v>274666</v>
       </c>
-      <c r="G44" s="28">
+      <c r="H44" s="28">
         <v>275340</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="28">
+      <c r="C45" s="28">
         <v>905649</v>
       </c>
-      <c r="C45" s="28">
+      <c r="D45" s="28">
         <v>1360528</v>
       </c>
-      <c r="D45" s="28">
+      <c r="E45" s="28">
         <v>1367078</v>
       </c>
-      <c r="E45" s="28">
+      <c r="F45" s="28">
         <v>1390972</v>
       </c>
-      <c r="F45" s="28">
+      <c r="G45" s="28">
         <v>1412148</v>
       </c>
-      <c r="G45" s="28">
+      <c r="H45" s="28">
         <v>1437386</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="28">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="28">
+      <c r="C46" s="28">
         <v>149954</v>
       </c>
-      <c r="C46" s="28">
+      <c r="D46" s="28">
         <v>231721</v>
       </c>
-      <c r="D46" s="28">
+      <c r="E46" s="28">
         <v>239025</v>
       </c>
-      <c r="E46" s="28">
+      <c r="F46" s="28">
         <v>259006</v>
       </c>
-      <c r="F46" s="28">
+      <c r="G46" s="28">
         <v>272520</v>
       </c>
-      <c r="G46" s="28">
+      <c r="H46" s="28">
         <v>287468</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="28">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="28">
+      <c r="C47" s="28">
         <v>30809</v>
       </c>
-      <c r="C47" s="28">
+      <c r="D47" s="28">
         <v>38608</v>
       </c>
-      <c r="D47" s="28">
+      <c r="E47" s="28">
         <v>37792</v>
       </c>
-      <c r="E47" s="28">
+      <c r="F47" s="28">
         <v>37298</v>
       </c>
-      <c r="F47" s="28">
+      <c r="G47" s="28">
         <v>37784</v>
       </c>
-      <c r="G47" s="28">
+      <c r="H47" s="28">
         <v>37233</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="28">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="28">
+      <c r="C48" s="28">
         <v>325395</v>
       </c>
-      <c r="C48" s="28">
+      <c r="D48" s="28">
         <v>486820</v>
       </c>
-      <c r="D48" s="28">
+      <c r="E48" s="28">
         <v>492564</v>
       </c>
-      <c r="E48" s="28">
+      <c r="F48" s="28">
         <v>474525</v>
       </c>
-      <c r="F48" s="28">
+      <c r="G48" s="28">
         <v>462335</v>
       </c>
-      <c r="G48" s="28">
+      <c r="H48" s="28">
         <v>457708</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="28">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="28">
+      <c r="C49" s="28">
         <v>290292</v>
       </c>
-      <c r="C49" s="28">
+      <c r="D49" s="28">
         <v>351863</v>
       </c>
-      <c r="D49" s="28">
+      <c r="E49" s="28">
         <v>329638</v>
       </c>
-      <c r="E49" s="28">
+      <c r="F49" s="28">
         <v>328355</v>
       </c>
-      <c r="F49" s="28">
+      <c r="G49" s="28">
         <v>329698</v>
       </c>
-      <c r="G49" s="28">
+      <c r="H49" s="28">
         <v>331253</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="28">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="28">
+      <c r="C50" s="28">
         <v>76556</v>
       </c>
-      <c r="C50" s="28">
+      <c r="D50" s="28">
         <v>128335</v>
       </c>
-      <c r="D50" s="28">
+      <c r="E50" s="28">
         <v>136166</v>
       </c>
-      <c r="E50" s="28">
+      <c r="F50" s="28">
         <v>127619</v>
       </c>
-      <c r="F50" s="28">
+      <c r="G50" s="28">
         <v>123779</v>
       </c>
-      <c r="G50" s="28">
+      <c r="H50" s="28">
         <v>120976</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="28">
+      <c r="C51" s="28">
         <v>271839</v>
       </c>
-      <c r="C51" s="28">
+      <c r="D51" s="28">
         <v>341698</v>
       </c>
-      <c r="D51" s="28">
+      <c r="E51" s="28">
         <v>329778</v>
       </c>
-      <c r="E51" s="28">
+      <c r="F51" s="28">
         <v>310350</v>
       </c>
-      <c r="F51" s="28">
+      <c r="G51" s="28">
         <v>302211</v>
       </c>
-      <c r="G51" s="28">
+      <c r="H51" s="28">
         <v>301126</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="28">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="28">
+      <c r="C52" s="28">
         <v>26811</v>
       </c>
-      <c r="C52" s="28">
+      <c r="D52" s="28">
         <v>35466</v>
       </c>
-      <c r="D52" s="28">
+      <c r="E52" s="28">
         <v>35103</v>
       </c>
-      <c r="E52" s="28">
+      <c r="F52" s="28">
         <v>31602</v>
       </c>
-      <c r="F52" s="28">
+      <c r="G52" s="28">
         <v>30787</v>
       </c>
-      <c r="G52" s="28">
+      <c r="H52" s="28">
         <v>30409</v>
       </c>
     </row>
